--- a/Mayo/resultado_sumas.xlsx
+++ b/Mayo/resultado_sumas.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCA\IA2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95942672-128D-4365-9F3E-71122DA49347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB9D8D-551C-45A7-B0E1-B023D895289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
   <si>
     <t>AGENTE</t>
   </si>
@@ -52,9 +63,6 @@
     <t>Roberto Alejandro Candido Joya</t>
   </si>
   <si>
-    <t>Henry Eduardo Sandoval</t>
-  </si>
-  <si>
     <t>Jasmin Eunice Santos Aguilar</t>
   </si>
   <si>
@@ -184,9 +192,6 @@
     <t>Christian Alexander Cordova Escoto</t>
   </si>
   <si>
-    <t>Brandon Alexander Aviles MadridP</t>
-  </si>
-  <si>
     <t>Juan Francisco Rivas Crespin</t>
   </si>
   <si>
@@ -214,9 +219,6 @@
     <t>Josue Emilio Rodriguez Reyes</t>
   </si>
   <si>
-    <t>Daniel Joel Mejia Mejia.</t>
-  </si>
-  <si>
     <t>Denilson Caleb Oviedo Beltrand</t>
   </si>
   <si>
@@ -235,9 +237,6 @@
     <t>Ana Margarita Alvarado Alvarez</t>
   </si>
   <si>
-    <t>Alejandra Carolina Aquino</t>
-  </si>
-  <si>
     <t>Jose Guillermo Escobar Castillo</t>
   </si>
   <si>
@@ -353,6 +352,21 @@
   </si>
   <si>
     <t>Omar Antonio Juarez Molina</t>
+  </si>
+  <si>
+    <t>Erick Rodrigo Calderon Campos</t>
+  </si>
+  <si>
+    <t>Kevin Alejandro Hernandez Barrientos</t>
+  </si>
+  <si>
+    <t>Marcela Ivonne Funes Pineda</t>
+  </si>
+  <si>
+    <t>Mauricio Ernesto Monge Navarro</t>
+  </si>
+  <si>
+    <t>Joel Alexader Miranda Arriola</t>
   </si>
 </sst>
 </file>
@@ -419,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -428,6 +442,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -731,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +765,7 @@
     <col min="2" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,9 +782,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3">
         <v>345.98958333333331</v>
@@ -777,780 +799,786 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>198.35999999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>19.835999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3">
+        <v>448.18359375</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13.445507812500001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32.493310546875001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3">
+        <v>336.29427083333331</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10.088828124999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3">
+        <v>256.13749999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25.61375</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>403.77499999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>40.377499999999998</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>198.9197916666667</v>
+      </c>
+      <c r="C8" s="3">
+        <v>19.891979166666669</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3">
+        <v>332.47500000000002</v>
+      </c>
+      <c r="C9" s="3">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>209.49062499999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20.9490625</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="3">
-        <v>29.13</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.9129999999999998</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>169.23</v>
-      </c>
-      <c r="C4" s="3">
-        <v>16.922999999999998</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" s="3">
+        <v>182.65</v>
+      </c>
+      <c r="C11" s="3">
+        <v>18.265000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>470.21484375</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47.021484375</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>402.2734375</v>
+      </c>
+      <c r="C13" s="3">
+        <v>40.227343750000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3">
+        <v>197.625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19.762499999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3">
+        <v>331.50625000000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>33.150624999999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3">
+        <v>201.61</v>
+      </c>
+      <c r="C16" s="3">
+        <v>20.161000000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3">
+        <v>415</v>
+      </c>
+      <c r="C17" s="3">
+        <v>41.5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="3">
+        <v>392.75520833333331</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11.78265625</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3">
+        <v>381.13046874999998</v>
+      </c>
+      <c r="C19" s="3">
+        <v>38.113046874999988</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="3">
+        <v>355.24062500000002</v>
+      </c>
+      <c r="C20" s="3">
+        <v>35.524062499999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3">
+        <v>189.98500000000001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18.9985</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>178.35999999999999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>17.836000000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="3">
+        <v>412.39687500000002</v>
+      </c>
+      <c r="C23" s="3">
+        <v>41.239687500000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3">
+        <v>505.37109375</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>15.1611328125</v>
+      </c>
+      <c r="E24" s="3">
+        <v>36.639404296875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3">
+        <v>371.46718750000002</v>
+      </c>
+      <c r="C25" s="3">
+        <v>37.146718750000012</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="3">
+        <v>182.66041666666669</v>
+      </c>
+      <c r="C26" s="3">
+        <v>18.26604166666667</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="3">
+        <v>201.61</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20.161000000000001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="3">
+        <v>120.0416666666667</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12.00416666666667</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>299.05312500000002</v>
+      </c>
+      <c r="C29" s="3">
+        <v>29.905312500000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3">
+        <v>353.78750000000002</v>
+      </c>
+      <c r="C30" s="3">
+        <v>35.378749999999997</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="3">
+        <v>400.05208333333331</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12.0015625</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="3">
+        <v>308.49843750000002</v>
+      </c>
+      <c r="C32" s="3">
+        <v>30.849843750000002</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="3">
+        <v>188.53860294117649</v>
+      </c>
+      <c r="C33" s="3">
+        <v>18.853860294117641</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="3">
-        <v>448.18359375</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>13.445507812500001</v>
-      </c>
-      <c r="E5" s="3">
-        <v>32.493310546875001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B34" s="3">
+        <v>397.57499999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>39.7575</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="3">
+        <v>344.5625</v>
+      </c>
+      <c r="C35" s="3">
+        <v>34.456249999999997</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="3">
+        <v>413.33333333333331</v>
+      </c>
+      <c r="C36" s="3">
+        <v>41.333333333333343</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="3">
+        <v>197.6434375</v>
+      </c>
+      <c r="C37" s="3">
+        <v>19.764343749999998</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3">
+        <v>319.88125000000002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>31.988125</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="3">
+        <v>287.60833333333329</v>
+      </c>
+      <c r="C39" s="3">
+        <v>28.760833333333331</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="3">
+        <v>416.22343749999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>41.622343749999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3">
+        <v>362.21562499999999</v>
+      </c>
+      <c r="C41" s="3">
+        <v>36.221562499999997</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="3">
+        <v>217.38749999999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>21.73875</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="3">
+        <v>412.5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>12.375</v>
+      </c>
+      <c r="E43" s="3">
+        <v>29.90625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3">
+        <v>96.100000000000009</v>
+      </c>
+      <c r="C44" s="3">
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3">
+        <v>359.6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>35.959999999999987</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3">
-        <v>336.29427083333331</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10.088828124999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="3">
-        <v>256.13749999999999</v>
-      </c>
-      <c r="C7" s="3">
-        <v>25.61375</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <v>403.77499999999998</v>
-      </c>
-      <c r="C8" s="3">
-        <v>40.377499999999998</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3">
-        <v>198.9197916666667</v>
-      </c>
-      <c r="C9" s="3">
-        <v>19.891979166666669</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="3">
-        <v>332.47500000000002</v>
-      </c>
-      <c r="C10" s="3">
-        <v>33.247500000000002</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3">
-        <v>209.49062499999999</v>
-      </c>
-      <c r="C11" s="3">
-        <v>20.9490625</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="3">
-        <v>182.65</v>
-      </c>
-      <c r="C12" s="3">
-        <v>18.265000000000001</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="3">
-        <v>85</v>
-      </c>
-      <c r="C13" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>470.21484375</v>
-      </c>
-      <c r="C14" s="3">
-        <v>47.021484375</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3">
-        <v>402.2734375</v>
-      </c>
-      <c r="C15" s="3">
-        <v>40.227343750000003</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B46" s="3">
+        <v>400.09765625</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>12.0029296875</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29.007080078125</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3">
+        <v>201.60999999999999</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20.160999999999998</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="3">
-        <v>197.625</v>
-      </c>
-      <c r="C16" s="3">
-        <v>19.762499999999999</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="3">
-        <v>331.50625000000002</v>
-      </c>
-      <c r="C17" s="3">
-        <v>33.150624999999998</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3">
-        <v>201.61</v>
-      </c>
-      <c r="C18" s="3">
-        <v>20.161000000000001</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="3">
-        <v>415</v>
-      </c>
-      <c r="C19" s="3">
-        <v>41.5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="3">
-        <v>392.75520833333331</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>11.78265625</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3">
-        <v>381.13046874999998</v>
-      </c>
-      <c r="C21" s="3">
-        <v>38.113046874999988</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="3">
-        <v>355.24062500000002</v>
-      </c>
-      <c r="C22" s="3">
-        <v>35.524062499999999</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="3">
-        <v>189.98500000000001</v>
-      </c>
-      <c r="C23" s="3">
-        <v>18.9985</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3">
-        <v>145.97999999999999</v>
-      </c>
-      <c r="C24" s="3">
-        <v>14.598000000000001</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="3">
-        <v>32.380000000000003</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3.238</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="3">
-        <v>412.39687500000002</v>
-      </c>
-      <c r="C26" s="3">
-        <v>41.239687500000002</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3">
-        <v>505.37109375</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>15.1611328125</v>
-      </c>
-      <c r="E27" s="3">
-        <v>36.639404296875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="3">
-        <v>371.46718750000002</v>
-      </c>
-      <c r="C28" s="3">
-        <v>37.146718750000012</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="3">
-        <v>182.66041666666669</v>
-      </c>
-      <c r="C29" s="3">
-        <v>18.26604166666667</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="3">
-        <v>201.61</v>
-      </c>
-      <c r="C30" s="3">
-        <v>20.161000000000001</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3">
-        <v>120.0416666666667</v>
-      </c>
-      <c r="C31" s="3">
-        <v>12.00416666666667</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <v>299.05312500000002</v>
-      </c>
-      <c r="C32" s="3">
-        <v>29.905312500000001</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="3">
-        <v>353.78750000000002</v>
-      </c>
-      <c r="C33" s="3">
-        <v>35.378749999999997</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="3">
-        <v>400.05208333333331</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>12.0015625</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="3">
-        <v>308.49843750000002</v>
-      </c>
-      <c r="C35" s="3">
-        <v>30.849843750000002</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="3">
-        <v>188.53860294117649</v>
-      </c>
-      <c r="C36" s="3">
-        <v>18.853860294117641</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="3">
-        <v>397.57499999999999</v>
-      </c>
-      <c r="C37" s="3">
-        <v>39.7575</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="3">
-        <v>344.5625</v>
-      </c>
-      <c r="C38" s="3">
-        <v>34.456249999999997</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="3">
-        <v>413.33333333333331</v>
-      </c>
-      <c r="C39" s="3">
-        <v>41.333333333333343</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="3">
-        <v>197.6434375</v>
-      </c>
-      <c r="C40" s="3">
-        <v>19.764343749999998</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="3">
-        <v>319.88125000000002</v>
-      </c>
-      <c r="C41" s="3">
-        <v>31.988125</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="3">
-        <v>287.60833333333329</v>
-      </c>
-      <c r="C42" s="3">
-        <v>28.760833333333331</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="3">
-        <v>416.22343749999999</v>
-      </c>
-      <c r="C43" s="3">
-        <v>41.622343749999999</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="3">
-        <v>362.21562499999999</v>
-      </c>
-      <c r="C44" s="3">
-        <v>36.221562499999997</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="3">
-        <v>217.38749999999999</v>
-      </c>
-      <c r="C45" s="3">
-        <v>21.73875</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="3">
-        <v>412.5</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>12.375</v>
-      </c>
-      <c r="E46" s="3">
-        <v>29.90625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="3">
-        <v>96.100000000000009</v>
-      </c>
-      <c r="C47" s="3">
-        <v>9.6100000000000012</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
       <c r="B48" s="3">
-        <v>359.6</v>
+        <v>195.06770833333329</v>
       </c>
       <c r="C48" s="3">
-        <v>35.959999999999987</v>
+        <v>19.506770833333331</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -1561,30 +1589,30 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B49" s="3">
-        <v>400.09765625</v>
+        <v>439.16666666666669</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
       </c>
       <c r="D49" s="3">
-        <v>12.0029296875</v>
+        <v>13.175000000000001</v>
       </c>
       <c r="E49" s="3">
-        <v>29.007080078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3">
-        <v>32.380000000000003</v>
+        <v>373.55</v>
       </c>
       <c r="C50" s="3">
-        <v>3.238</v>
+        <v>37.354999999999997</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -1595,16 +1623,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3">
-        <v>169.23</v>
+        <v>397.23958333333331</v>
       </c>
       <c r="C51" s="3">
-        <v>16.922999999999998</v>
+        <v>0</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>11.917187500000001</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -1612,13 +1640,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B52" s="3">
-        <v>195.06770833333329</v>
+        <v>361.44062500000001</v>
       </c>
       <c r="C52" s="3">
-        <v>19.506770833333331</v>
+        <v>36.144062499999997</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -1629,16 +1657,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3">
-        <v>439.16666666666669</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="C53" s="3">
-        <v>0</v>
+        <v>3.238</v>
       </c>
       <c r="D53" s="3">
-        <v>13.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -1646,13 +1674,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B54" s="3">
-        <v>373.55</v>
+        <v>312.421875</v>
       </c>
       <c r="C54" s="3">
-        <v>37.354999999999997</v>
+        <v>31.2421875</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -1662,31 +1690,31 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="3">
-        <v>397.23958333333331</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55" s="3">
-        <v>11.917187500000001</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
+      <c r="A55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="6">
+        <v>218.85</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>6.5654999999999992</v>
+      </c>
+      <c r="E55" s="6">
+        <v>15.866624999999999</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B56" s="3">
-        <v>361.44062500000001</v>
+        <v>198.70375000000001</v>
       </c>
       <c r="C56" s="3">
-        <v>36.144062499999997</v>
+        <v>19.870374999999999</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -1697,13 +1725,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3">
-        <v>32.380000000000003</v>
+        <v>173.72375</v>
       </c>
       <c r="C57" s="3">
-        <v>3.238</v>
+        <v>17.372375000000002</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -1714,16 +1742,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B58" s="3">
-        <v>312.421875</v>
+        <v>369.65755208333331</v>
       </c>
       <c r="C58" s="3">
-        <v>31.2421875</v>
+        <v>0</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>11.089726562499999</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -1731,13 +1759,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B59" s="3">
-        <v>198.70375000000001</v>
+        <v>353.109375</v>
       </c>
       <c r="C59" s="3">
-        <v>19.870374999999999</v>
+        <v>35.310937499999987</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -1748,13 +1776,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3">
-        <v>173.72375</v>
+        <v>396.8</v>
       </c>
       <c r="C60" s="3">
-        <v>17.372375000000002</v>
+        <v>39.68</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -1765,16 +1793,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B61" s="3">
-        <v>369.65755208333331</v>
+        <v>377.16666666666669</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
       </c>
       <c r="D61" s="3">
-        <v>11.089726562499999</v>
+        <v>11.315</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -1782,13 +1810,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B62" s="3">
-        <v>353.109375</v>
+        <v>280.9375</v>
       </c>
       <c r="C62" s="3">
-        <v>35.310937499999987</v>
+        <v>28.09375</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -1799,13 +1827,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B63" s="3">
-        <v>396.8</v>
+        <v>381.76015625000002</v>
       </c>
       <c r="C63" s="3">
-        <v>39.68</v>
+        <v>38.176015625000012</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -1816,16 +1844,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B64" s="3">
-        <v>377.16666666666669</v>
+        <v>155.11000000000001</v>
       </c>
       <c r="C64" s="3">
-        <v>0</v>
+        <v>15.510999999999999</v>
       </c>
       <c r="D64" s="3">
-        <v>11.315</v>
+        <v>0</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
@@ -1833,13 +1861,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B65" s="3">
-        <v>280.9375</v>
+        <v>381.34843749999999</v>
       </c>
       <c r="C65" s="3">
-        <v>28.09375</v>
+        <v>38.134843750000002</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -1850,13 +1878,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B66" s="3">
-        <v>381.76015625000002</v>
+        <v>352.28593749999999</v>
       </c>
       <c r="C66" s="3">
-        <v>38.176015625000012</v>
+        <v>35.228593750000002</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -1867,13 +1895,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B67" s="3">
-        <v>155.11000000000001</v>
+        <v>29.14</v>
       </c>
       <c r="C67" s="3">
-        <v>15.510999999999999</v>
+        <v>2.9140000000000001</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -1884,16 +1912,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B68" s="3">
-        <v>381.34843749999999</v>
+        <v>443.33333333333331</v>
       </c>
       <c r="C68" s="3">
-        <v>38.134843750000002</v>
+        <v>0</v>
       </c>
       <c r="D68" s="3">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
@@ -1901,13 +1929,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B69" s="3">
-        <v>352.28593749999999</v>
+        <v>401.93437499999999</v>
       </c>
       <c r="C69" s="3">
-        <v>35.228593750000002</v>
+        <v>40.193437500000002</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -1918,13 +1946,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B70" s="3">
-        <v>29.14</v>
+        <v>358.82499999999999</v>
       </c>
       <c r="C70" s="3">
-        <v>2.9140000000000001</v>
+        <v>35.8825</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -1935,16 +1963,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B71" s="3">
-        <v>443.33333333333331</v>
+        <v>368.125</v>
       </c>
       <c r="C71" s="3">
-        <v>0</v>
+        <v>36.8125</v>
       </c>
       <c r="D71" s="3">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3">
         <v>0</v>
@@ -1952,13 +1980,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B72" s="3">
-        <v>401.93437499999999</v>
+        <v>305.73750000000001</v>
       </c>
       <c r="C72" s="3">
-        <v>40.193437500000002</v>
+        <v>30.57375</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -1969,13 +1997,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B73" s="3">
-        <v>358.82499999999999</v>
+        <v>198.37</v>
       </c>
       <c r="C73" s="3">
-        <v>35.8825</v>
+        <v>19.837</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -1986,13 +2014,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B74" s="3">
-        <v>368.125</v>
+        <v>378.2</v>
       </c>
       <c r="C74" s="3">
-        <v>36.8125</v>
+        <v>37.82</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -2003,13 +2031,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B75" s="3">
-        <v>305.73750000000001</v>
+        <v>357.00859374999999</v>
       </c>
       <c r="C75" s="3">
-        <v>30.57375</v>
+        <v>35.700859375</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -2020,16 +2048,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B76" s="3">
-        <v>198.37</v>
+        <v>358.96419270833331</v>
       </c>
       <c r="C76" s="3">
-        <v>19.837</v>
+        <v>0</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>10.768925781249999</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -2037,33 +2065,33 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B77" s="3">
-        <v>378.2</v>
+        <v>357.7998046875</v>
       </c>
       <c r="C77" s="3">
-        <v>37.82</v>
+        <v>0</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>10.733994140625001</v>
       </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>25.940485839843749</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B78" s="3">
-        <v>357.00859374999999</v>
+        <v>340.66666666666669</v>
       </c>
       <c r="C78" s="3">
-        <v>35.700859375</v>
+        <v>0</v>
       </c>
       <c r="D78" s="3">
-        <v>0</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="E78" s="3">
         <v>0</v>
@@ -2071,16 +2099,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B79" s="3">
-        <v>358.96419270833331</v>
+        <v>110.05</v>
       </c>
       <c r="C79" s="3">
-        <v>0</v>
+        <v>11.005000000000001</v>
       </c>
       <c r="D79" s="3">
-        <v>10.768925781249999</v>
+        <v>0</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
@@ -2088,33 +2116,33 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B80" s="3">
-        <v>357.7998046875</v>
+        <v>220.58437499999999</v>
       </c>
       <c r="C80" s="3">
-        <v>0</v>
+        <v>22.0584375</v>
       </c>
       <c r="D80" s="3">
-        <v>10.733994140625001</v>
+        <v>0</v>
       </c>
       <c r="E80" s="3">
-        <v>25.940485839843749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B81" s="3">
-        <v>340.66666666666669</v>
+        <v>396.12187499999999</v>
       </c>
       <c r="C81" s="3">
-        <v>0</v>
+        <v>39.612187499999997</v>
       </c>
       <c r="D81" s="3">
-        <v>10.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -2122,13 +2150,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="B82" s="3">
-        <v>110.05</v>
+        <v>385.19921875</v>
       </c>
       <c r="C82" s="3">
-        <v>11.005000000000001</v>
+        <v>38.519921874999987</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -2139,13 +2167,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B83" s="3">
-        <v>220.58437499999999</v>
+        <v>200.66666666666671</v>
       </c>
       <c r="C83" s="3">
-        <v>22.0584375</v>
+        <v>20.06666666666667</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
@@ -2156,13 +2184,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B84" s="3">
-        <v>396.12187499999999</v>
+        <v>211.89</v>
       </c>
       <c r="C84" s="3">
-        <v>39.612187499999997</v>
+        <v>21.189</v>
       </c>
       <c r="D84" s="3">
         <v>0</v>
@@ -2173,13 +2201,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B85" s="3">
-        <v>385.19921875</v>
+        <v>57.333333333333343</v>
       </c>
       <c r="C85" s="3">
-        <v>38.519921874999987</v>
+        <v>5.7333333333333343</v>
       </c>
       <c r="D85" s="3">
         <v>0</v>
@@ -2190,13 +2218,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B86" s="3">
-        <v>200.66666666666671</v>
+        <v>397.72265625</v>
       </c>
       <c r="C86" s="3">
-        <v>20.06666666666667</v>
+        <v>39.772265625000003</v>
       </c>
       <c r="D86" s="3">
         <v>0</v>
@@ -2207,13 +2235,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B87" s="3">
-        <v>211.89</v>
+        <v>399.70625000000001</v>
       </c>
       <c r="C87" s="3">
-        <v>21.189</v>
+        <v>39.970624999999998</v>
       </c>
       <c r="D87" s="3">
         <v>0</v>
@@ -2224,13 +2252,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B88" s="3">
-        <v>57.333333333333343</v>
+        <v>353.27890624999998</v>
       </c>
       <c r="C88" s="3">
-        <v>5.7333333333333343</v>
+        <v>35.327890624999988</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -2241,16 +2269,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B89" s="3">
-        <v>397.72265625</v>
+        <v>461.3671875</v>
       </c>
       <c r="C89" s="3">
-        <v>39.772265625000003</v>
+        <v>0</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>13.841015625000001</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2258,13 +2286,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3">
-        <v>399.70625000000001</v>
+        <v>275</v>
       </c>
       <c r="C90" s="3">
-        <v>39.970624999999998</v>
+        <v>27.5</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -2275,13 +2303,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B91" s="3">
-        <v>353.27890624999998</v>
+        <v>403.67812500000002</v>
       </c>
       <c r="C91" s="3">
-        <v>35.327890624999988</v>
+        <v>40.367812499999999</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
@@ -2292,16 +2320,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B92" s="3">
-        <v>461.3671875</v>
+        <v>369.8203125</v>
       </c>
       <c r="C92" s="3">
-        <v>0</v>
+        <v>36.982031250000013</v>
       </c>
       <c r="D92" s="3">
-        <v>13.841015625000001</v>
+        <v>0</v>
       </c>
       <c r="E92" s="3">
         <v>0</v>
@@ -2309,16 +2337,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B93" s="3">
-        <v>275</v>
+        <v>381.34895833333331</v>
       </c>
       <c r="C93" s="3">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="D93" s="3">
-        <v>0</v>
+        <v>11.440468750000001</v>
       </c>
       <c r="E93" s="3">
         <v>0</v>
@@ -2326,13 +2354,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B94" s="3">
-        <v>403.67812500000002</v>
+        <v>396.41250000000002</v>
       </c>
       <c r="C94" s="3">
-        <v>40.367812499999999</v>
+        <v>39.641249999999999</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
@@ -2343,13 +2371,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B95" s="3">
-        <v>369.8203125</v>
+        <v>214.1489583333333</v>
       </c>
       <c r="C95" s="3">
-        <v>36.982031250000013</v>
+        <v>21.41489583333334</v>
       </c>
       <c r="D95" s="3">
         <v>0</v>
@@ -2360,16 +2388,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B96" s="3">
-        <v>381.34895833333331</v>
+        <v>203.80208333333329</v>
       </c>
       <c r="C96" s="3">
-        <v>0</v>
+        <v>20.380208333333329</v>
       </c>
       <c r="D96" s="3">
-        <v>11.440468750000001</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2377,13 +2405,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B97" s="3">
-        <v>396.41250000000002</v>
+        <v>473.4375</v>
       </c>
       <c r="C97" s="3">
-        <v>39.641249999999999</v>
+        <v>47.34375</v>
       </c>
       <c r="D97" s="3">
         <v>0</v>
@@ -2394,13 +2422,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B98" s="3">
-        <v>214.1489583333333</v>
+        <v>352.96406250000001</v>
       </c>
       <c r="C98" s="3">
-        <v>21.41489583333334</v>
+        <v>35.296406249999997</v>
       </c>
       <c r="D98" s="3">
         <v>0</v>
@@ -2411,13 +2439,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B99" s="3">
-        <v>203.80208333333329</v>
+        <v>406.80234374999998</v>
       </c>
       <c r="C99" s="3">
-        <v>20.380208333333329</v>
+        <v>40.680234374999998</v>
       </c>
       <c r="D99" s="3">
         <v>0</v>
@@ -2428,13 +2456,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B100" s="3">
-        <v>473.4375</v>
+        <v>393.7</v>
       </c>
       <c r="C100" s="3">
-        <v>47.34375</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
@@ -2445,13 +2473,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B101" s="3">
-        <v>352.96406250000001</v>
+        <v>314.18984375000002</v>
       </c>
       <c r="C101" s="3">
-        <v>35.296406249999997</v>
+        <v>31.418984375000001</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
@@ -2462,16 +2490,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B102" s="3">
-        <v>406.80234374999998</v>
+        <v>401.45833333333331</v>
       </c>
       <c r="C102" s="3">
-        <v>40.680234374999998</v>
+        <v>0</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>12.043749999999999</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -2479,16 +2507,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B103" s="3">
-        <v>393.7</v>
+        <v>380.078125</v>
       </c>
       <c r="C103" s="3">
-        <v>39.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>11.40234375</v>
       </c>
       <c r="E103" s="3">
         <v>0</v>
@@ -2496,13 +2524,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B104" s="3">
-        <v>314.18984375000002</v>
+        <v>430.35468750000001</v>
       </c>
       <c r="C104" s="3">
-        <v>31.418984375000001</v>
+        <v>43.03546875</v>
       </c>
       <c r="D104" s="3">
         <v>0</v>
@@ -2513,33 +2541,33 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3">
-        <v>401.45833333333331</v>
+        <v>490</v>
       </c>
       <c r="C105" s="3">
         <v>0</v>
       </c>
       <c r="D105" s="3">
-        <v>12.043749999999999</v>
+        <v>14.7</v>
       </c>
       <c r="E105" s="3">
-        <v>0</v>
+        <v>35.524999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="3">
-        <v>380.078125</v>
+        <v>231.875</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>23.1875</v>
       </c>
       <c r="D106" s="3">
-        <v>11.40234375</v>
+        <v>0</v>
       </c>
       <c r="E106" s="3">
         <v>0</v>
@@ -2547,25 +2575,111 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B107" s="3">
-        <v>430.35468750000001</v>
+        <v>490</v>
       </c>
       <c r="C107" s="3">
-        <v>43.03546875</v>
+        <v>0</v>
       </c>
       <c r="D107" s="3">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="E107" s="3">
+        <v>35.524999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="3">
+        <v>161.41927083333329</v>
+      </c>
+      <c r="C108" s="3">
+        <v>16.141927083333329</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="3">
+        <v>245</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <v>7.35</v>
+      </c>
+      <c r="E109" s="3">
+        <v>17.762499999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>301.84895833333343</v>
+      </c>
+      <c r="C110" s="3">
+        <v>30.184895833333339</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>490</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="E111" s="3">
+        <v>35.524999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>97.2265625</v>
+      </c>
+      <c r="C112" s="3">
+        <v>9.72265625</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E107">
-    <sortCondition ref="A2:A107"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E104">
+    <sortCondition ref="A2:A104"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>